--- a/AdvisorManagement/Upload/Danhsachlop.xlsx
+++ b/AdvisorManagement/Upload/Danhsachlop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trinh\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E48AA0A-CCF1-4512-8ED5-39F4B6088719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E688B96B-60FB-4C62-A693-092DA667C6C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,9 +37,6 @@
     <t>Tổng sinh viên</t>
   </si>
   <si>
-    <t>Hoàng Lê Minh</t>
-  </si>
-  <si>
     <t>Học kỳ 2 - 2022</t>
   </si>
   <si>
@@ -53,6 +50,9 @@
   </si>
   <si>
     <t>K25T-PM10</t>
+  </si>
+  <si>
+    <t>Trịnh Ngọc Phú</t>
   </si>
 </sst>
 </file>
@@ -404,7 +404,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -438,13 +438,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
         <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -452,13 +452,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
         <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
